--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ppeng.com\pzdata\docs\Project Resources\Ag Water\apps\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D3CC5-548B-472C-821E-93DD3AC4622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92036B94-4A5A-47EB-B39C-E95EA89D27AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1140">
   <si>
     <t>Name</t>
   </si>
@@ -3453,7 +3453,10 @@
     <t>#504099</t>
   </si>
   <si>
-    <t>Frick Unit Pipeline</t>
+    <t>Panama Unit Pipeline</t>
+  </si>
+  <si>
+    <t>#A2678A</t>
   </si>
 </sst>
 </file>
@@ -3852,14 +3855,14 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -4011,7 +4014,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>1139</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -4179,7 +4182,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ppeng.com\pzdata\docs\Project Resources\Ag Water\apps\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92036B94-4A5A-47EB-B39C-E95EA89D27AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619A55C-4AB2-4D8B-93C7-08AA2C2DC42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="1142">
   <si>
     <t>Name</t>
   </si>
@@ -3457,6 +3457,12 @@
   </si>
   <si>
     <t>#A2678A</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\docs\Project Resources\Ag Water\apps\aewsd_frick_unit\data\TWSC_2023\TWSC_2023.shp</t>
+  </si>
+  <si>
+    <t>TWCS</t>
   </si>
 </sst>
 </file>
@@ -3568,8 +3574,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K17" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K17" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K18" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="9"/>
@@ -3852,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,6 +4340,18 @@
       </c>
       <c r="H17" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>IF(AND(ISBLANK(H18),ISBLANK(I18)),"gdf",IF(ISBLANK(H18),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ppeng.com\pzdata\docs\Project Resources\Ag Water\apps\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28545F-128F-44C9-A860-DAEF1E7D5272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAA12B5-96A6-4C59-BF26-903259590766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>file_type</t>
+  </si>
+  <si>
+    <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\200 Technical\206 Survey\Survey Requests\2023-1008_Survey_Request_Supplemental_Area\2D Linework.shp</t>
+  </si>
+  <si>
+    <t>2d Linework</t>
+  </si>
+  <si>
+    <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\200 Technical\206 Survey\Survey Requests\2023-1008_Survey_Request_Supplemental_Area\2D Points.shp</t>
+  </si>
+  <si>
+    <t>2d points</t>
   </si>
 </sst>
 </file>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,314 +599,356 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" ref="F2" si="0">IF(AND(ISBLANK(G2),ISBLANK(H2)),"gdf",IF(ISBLANK(G2),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3" si="1">IF(AND(ISBLANK(G3),ISBLANK(H3)),"gdf",IF(ISBLANK(G3),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>IF(AND(ISBLANK(G2),ISBLANK(H2)),"gdf",IF(ISBLANK(G2),"gdb","shp"))</f>
+      <c r="F4" s="1" t="str">
+        <f>IF(AND(ISBLANK(G4),ISBLANK(H4)),"gdf",IF(ISBLANK(G4),"gdb","shp"))</f>
         <v>gdf</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F16" si="0">IF(AND(ISBLANK(G3),ISBLANK(H3)),"gdf",IF(ISBLANK(G3),"gdb","shp"))</f>
-        <v>shp</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" ref="F5:F18" si="2">IF(AND(ISBLANK(G5),ISBLANK(H5)),"gdf",IF(ISBLANK(G5),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>gdb</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>shp</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>shp</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>shp</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>shp</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>shp</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{8326981B-40D6-4238-BBA0-B187275AE143}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{8326981B-40D6-4238-BBA0-B187275AE143}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ppeng.com\pzdata\docs\Project Resources\Ag Water\apps\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619A55C-4AB2-4D8B-93C7-08AA2C2DC42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7276725D-D362-4B9E-9D26-2444686B4E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="1146">
   <si>
     <t>Name</t>
   </si>
@@ -3463,6 +3463,18 @@
   </si>
   <si>
     <t>TWCS</t>
+  </si>
+  <si>
+    <t>2d points</t>
+  </si>
+  <si>
+    <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\200 Technical\206 Survey\Survey Requests\2023-1008_Survey_Request_Supplemental_Area\2D Points.shp</t>
+  </si>
+  <si>
+    <t>2d Linework</t>
+  </si>
+  <si>
+    <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\200 Technical\206 Survey\Survey Requests\2023-1008_Survey_Request_Supplemental_Area\2D Linework.shp</t>
   </si>
 </sst>
 </file>
@@ -3574,8 +3586,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K18" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K20" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="9"/>
@@ -3858,10 +3870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4352,6 +4364,60 @@
       </c>
       <c r="H18" s="1" t="s">
         <v>1140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>IF(AND(ISBLANK(H19),ISBLANK(#REF!)),"gdf",IF(ISBLANK(H19),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>IF(AND(ISBLANK(H20),ISBLANK(#REF!)),"gdf",IF(ISBLANK(H20),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1145</v>
       </c>
     </row>
   </sheetData>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ppeng.com\pzdata\docs\Project Resources\Ag Water\apps\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1A730D-86A5-45C7-B0D0-C3B87244D852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98194792-B4FB-414C-8F4A-96D764C34301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1151">
   <si>
     <t>Name</t>
   </si>
@@ -3487,6 +3487,9 @@
   </si>
   <si>
     <t>display</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Feature\Facilities\proposed_turnout_2023_10.shp</t>
   </si>
 </sst>
 </file>
@@ -3601,8 +3604,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K23" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K24" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="9"/>
@@ -3885,10 +3888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4137,9 +4140,6 @@
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="1" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -4561,6 +4561,36 @@
         <v>1144</v>
       </c>
       <c r="K23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" ref="G24" si="1">IF(AND(ISBLANK(H24),ISBLANK(I24)),"gdf",IF(ISBLANK(H24),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K24" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432781C8-9C33-4E1F-89F8-A04772D46B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A91F45-8A60-4C42-9380-6B229CC84586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1156">
   <si>
     <t>Name</t>
   </si>
@@ -3491,6 +3491,21 @@
   </si>
   <si>
     <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\TWSC_2023</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0115 Pipeline Eastments.shp</t>
+  </si>
+  <si>
+    <t>Pipeline ESMT</t>
+  </si>
+  <si>
+    <t>SL,PL,R-W</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0115 Pipeline SL-PL-RW.shp</t>
+  </si>
+  <si>
+    <t>#864AF9</t>
   </si>
 </sst>
 </file>
@@ -3615,8 +3630,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K24" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K26" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="9"/>
@@ -3899,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,6 +4621,60 @@
         <v>1139</v>
       </c>
       <c r="K24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>IF(AND(ISBLANK(H25),ISBLANK(I25)),"gdf",IF(ISBLANK(H25),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>IF(AND(ISBLANK(H26),ISBLANK(I26)),"gdf",IF(ISBLANK(H26),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K26" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A91F45-8A60-4C42-9380-6B229CC84586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85B5FEB-397B-42AE-8013-D12DF4C2A3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3505,14 +3505,14 @@
     <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0115 Pipeline SL-PL-RW.shp</t>
   </si>
   <si>
-    <t>#864AF9</t>
+    <t>#FF00FF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3534,6 +3534,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBDC1C6"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3557,7 +3563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3571,6 +3577,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3916,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,29 +4543,29 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1137</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF(AND(ISBLANK(H22),ISBLANK(#REF!)),"gdf",IF(ISBLANK(H22),"gdb","shp"))</f>
+        <f>IF(AND(ISBLANK(H22),ISBLANK(I22)),"gdf",IF(ISBLANK(H22),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="K22" s="1" t="b">
         <v>1</v>
@@ -4566,29 +4573,29 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>0</v>
+        <v>1137</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF(AND(ISBLANK(H23),ISBLANK(I23)),"gdf",IF(ISBLANK(H23),"gdb","shp"))</f>
+        <f t="shared" ref="G23" si="1">IF(AND(ISBLANK(H23),ISBLANK(I23)),"gdf",IF(ISBLANK(H23),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="K23" s="1" t="b">
         <v>1</v>
@@ -4596,29 +4603,26 @@
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>1152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1137</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" ref="G24" si="1">IF(AND(ISBLANK(H24),ISBLANK(I24)),"gdf",IF(ISBLANK(H24),"gdb","shp"))</f>
+        <f>IF(AND(ISBLANK(H24),ISBLANK(I24)),"gdf",IF(ISBLANK(H24),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>1139</v>
+      <c r="H24" s="1" t="s">
+        <v>1151</v>
       </c>
       <c r="K24" s="1" t="b">
         <v>1</v>
@@ -4626,26 +4630,26 @@
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
+      <c r="C25" s="5" t="s">
+        <v>1155</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G25" s="1" t="str">
         <f>IF(AND(ISBLANK(H25),ISBLANK(I25)),"gdf",IF(ISBLANK(H25),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K25" s="1" t="b">
         <v>1</v>
@@ -4653,26 +4657,29 @@
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1153</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1155</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1137</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF(AND(ISBLANK(H26),ISBLANK(I26)),"gdf",IF(ISBLANK(H26),"gdb","shp"))</f>
+        <f>IF(AND(ISBLANK(H26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(H26),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>1154</v>
+      <c r="H26" s="2" t="s">
+        <v>1140</v>
       </c>
       <c r="K26" s="1" t="b">
         <v>1</v>
@@ -4684,9 +4691,9 @@
     <hyperlink ref="H5" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
     <hyperlink ref="H6" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
     <hyperlink ref="H21" r:id="rId4" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{508724CA-ED12-47D1-9898-57D5E9C6A53E}"/>
-    <hyperlink ref="H22" r:id="rId5" xr:uid="{CF03A63A-5167-4AB2-8120-4D582A637602}"/>
-    <hyperlink ref="H23" r:id="rId6" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
-    <hyperlink ref="H24" r:id="rId7" xr:uid="{6295A839-49C6-4C58-940A-E1C207E33B16}"/>
+    <hyperlink ref="H26" r:id="rId5" xr:uid="{CF03A63A-5167-4AB2-8120-4D582A637602}"/>
+    <hyperlink ref="H22" r:id="rId6" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
+    <hyperlink ref="H23" r:id="rId7" xr:uid="{6295A839-49C6-4C58-940A-E1C207E33B16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85B5FEB-397B-42AE-8013-D12DF4C2A3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED613AB9-C81B-4999-BB85-866AB847CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="1157">
   <si>
     <t>Name</t>
   </si>
@@ -3493,9 +3493,6 @@
     <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\TWSC_2023</t>
   </si>
   <si>
-    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0115 Pipeline Eastments.shp</t>
-  </si>
-  <si>
     <t>Pipeline ESMT</t>
   </si>
   <si>
@@ -3506,6 +3503,12 @@
   </si>
   <si>
     <t>#FF00FF</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0117 Shapefiles\2024-0117 Pipeline ESMT.shp</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0117 Shapefiles\2024-0117 Total Area.shp</t>
   </si>
 </sst>
 </file>
@@ -3637,8 +3640,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K26" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K27" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="9"/>
@@ -3921,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,9 +4570,6 @@
       <c r="H22" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="K22" s="1" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4601,12 +4601,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -4622,7 +4622,7 @@
         <v>shp</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="K24" s="1" t="b">
         <v>1</v>
@@ -4630,13 +4630,13 @@
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -4649,10 +4649,7 @@
         <v>shp</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K25" s="1" t="b">
-        <v>1</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4682,6 +4679,33 @@
         <v>1140</v>
       </c>
       <c r="K26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>IF(AND(ISBLANK(H27),ISBLANK(I27)),"gdf",IF(ISBLANK(H27),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K27" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED613AB9-C81B-4999-BB85-866AB847CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11AF97-4B49-4A00-B4DB-1767AAFAA877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="1159">
   <si>
     <t>Name</t>
   </si>
@@ -3509,6 +3509,12 @@
   </si>
   <si>
     <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0117 Shapefiles\2024-0117 Total Area.shp</t>
+  </si>
+  <si>
+    <t>partial_display</t>
+  </si>
+  <si>
+    <t>clip_to_frick</t>
   </si>
 </sst>
 </file>
@@ -3586,7 +3592,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3640,22 +3652,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:K27" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="4">
-      <calculatedColumnFormula>IF(AND(ISBLANK(H2),ISBLANK(I2)),"gdf",IF(ISBLANK(H2),"gdb","shp"))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:M27" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{70977AAF-43F2-425E-82FC-B3E65FBAA5F5}" name="clip_to_frick" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="3">
+      <calculatedColumnFormula>IF(AND(ISBLANK(I2),ISBLANK(J2)),"gdf",IF(ISBLANK(I2),"gdb","shp"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="display" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="display" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="partial_display" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3924,10 +3938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,17 +3952,19 @@
     <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="54.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3968,22 +3984,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4002,15 +4024,16 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>IF(AND(ISBLANK(H2),ISBLANK(I2)),"gdf",IF(ISBLANK(H2),"gdb","shp"))</f>
+      <c r="H2" s="1" t="str">
+        <f>IF(AND(ISBLANK(I2),ISBLANK(J2)),"gdf",IF(ISBLANK(I2),"gdb","shp"))</f>
         <v>gdf</v>
       </c>
-      <c r="K2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,14 +4049,17 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4052,18 +4078,21 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G17" si="0">IF(AND(ISBLANK(H4),ISBLANK(I4)),"gdf",IF(ISBLANK(H4),"gdb","shp"))</f>
+      <c r="H4" s="1" t="str">
+        <f t="shared" ref="H4:H17" si="0">IF(AND(ISBLANK(I4),ISBLANK(J4)),"gdf",IF(ISBLANK(I4),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4082,18 +4111,21 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4112,18 +4144,21 @@
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4142,15 +4177,16 @@
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4169,18 +4205,19 @@
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>gdb</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -4199,19 +4236,20 @@
       <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="K9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -4230,18 +4268,19 @@
       <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="K10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -4260,18 +4299,19 @@
       <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="K11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1128</v>
       </c>
@@ -4290,18 +4330,19 @@
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="K12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4320,18 +4361,19 @@
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="K13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -4350,18 +4392,19 @@
       <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="K14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -4380,18 +4423,19 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="K15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -4410,18 +4454,19 @@
       <c r="F16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="K16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4440,30 +4485,32 @@
       <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="K17" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f>IF(AND(ISBLANK(H18),ISBLANK(I18)),"gdf",IF(ISBLANK(H18),"gdb","shp"))</f>
+      <c r="H18" s="1" t="str">
+        <f>IF(AND(ISBLANK(I18),ISBLANK(J18)),"gdf",IF(ISBLANK(I18),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1131</v>
       </c>
@@ -4482,15 +4529,16 @@
       <c r="F19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="1" t="str">
-        <f>IF(AND(ISBLANK(H19),ISBLANK(#REF!)),"gdf",IF(ISBLANK(H19),"gdb","shp"))</f>
+      <c r="H19" s="1" t="str">
+        <f>IF(AND(ISBLANK(I19),ISBLANK(#REF!)),"gdf",IF(ISBLANK(I19),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1135</v>
       </c>
@@ -4509,15 +4557,16 @@
       <c r="F20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="1" t="str">
-        <f>IF(AND(ISBLANK(H20),ISBLANK(#REF!)),"gdf",IF(ISBLANK(H20),"gdb","shp"))</f>
+      <c r="H20" s="1" t="str">
+        <f>IF(AND(ISBLANK(I20),ISBLANK(#REF!)),"gdf",IF(ISBLANK(I20),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1136</v>
       </c>
@@ -4536,15 +4585,16 @@
       <c r="F21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="1" t="str">
-        <f>IF(AND(ISBLANK(H21),ISBLANK(#REF!)),"gdf",IF(ISBLANK(H21),"gdb","shp"))</f>
+      <c r="H21" s="1" t="str">
+        <f>IF(AND(ISBLANK(I21),ISBLANK(#REF!)),"gdf",IF(ISBLANK(I21),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -4563,15 +4613,16 @@
       <c r="F22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="str">
-        <f>IF(AND(ISBLANK(H22),ISBLANK(I22)),"gdf",IF(ISBLANK(H22),"gdb","shp"))</f>
+      <c r="H22" s="1" t="str">
+        <f>IF(AND(ISBLANK(I22),ISBLANK(J22)),"gdf",IF(ISBLANK(I22),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -4590,18 +4641,24 @@
       <c r="F23" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="G23" s="1" t="str">
-        <f t="shared" ref="G23" si="1">IF(AND(ISBLANK(H23),ISBLANK(I23)),"gdf",IF(ISBLANK(H23),"gdb","shp"))</f>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" ref="H23" si="1">IF(AND(ISBLANK(I23),ISBLANK(J23)),"gdf",IF(ISBLANK(I23),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="K23" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1151</v>
       </c>
@@ -4617,18 +4674,21 @@
       <c r="E24" s="1">
         <v>0.5</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <f>IF(AND(ISBLANK(H24),ISBLANK(I24)),"gdf",IF(ISBLANK(H24),"gdb","shp"))</f>
+      <c r="H24" s="1" t="str">
+        <f>IF(AND(ISBLANK(I24),ISBLANK(J24)),"gdf",IF(ISBLANK(I24),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="K24" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1152</v>
       </c>
@@ -4644,15 +4704,16 @@
       <c r="E25" s="1">
         <v>0.2</v>
       </c>
-      <c r="G25" s="1" t="str">
-        <f>IF(AND(ISBLANK(H25),ISBLANK(I25)),"gdf",IF(ISBLANK(H25),"gdb","shp"))</f>
+      <c r="H25" s="1" t="str">
+        <f>IF(AND(ISBLANK(I25),ISBLANK(J25)),"gdf",IF(ISBLANK(I25),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -4671,18 +4732,21 @@
       <c r="F26" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="G26" s="1" t="str">
-        <f>IF(AND(ISBLANK(H26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(H26),"gdb","shp"))</f>
+      <c r="H26" s="1" t="str">
+        <f>IF(AND(ISBLANK(I26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(I26),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="K26" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -4698,26 +4762,30 @@
       <c r="E27" s="1">
         <v>0.7</v>
       </c>
-      <c r="G27" s="1" t="str">
-        <f>IF(AND(ISBLANK(H27),ISBLANK(I27)),"gdf",IF(ISBLANK(H27),"gdb","shp"))</f>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>IF(AND(ISBLANK(I27),ISBLANK(J27)),"gdf",IF(ISBLANK(I27),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="K27" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="L27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{8326981B-40D6-4238-BBA0-B187275AE143}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
-    <hyperlink ref="H21" r:id="rId4" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{508724CA-ED12-47D1-9898-57D5E9C6A53E}"/>
-    <hyperlink ref="H26" r:id="rId5" xr:uid="{CF03A63A-5167-4AB2-8120-4D582A637602}"/>
-    <hyperlink ref="H22" r:id="rId6" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
-    <hyperlink ref="H23" r:id="rId7" xr:uid="{6295A839-49C6-4C58-940A-E1C207E33B16}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{8326981B-40D6-4238-BBA0-B187275AE143}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
+    <hyperlink ref="I21" r:id="rId4" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{508724CA-ED12-47D1-9898-57D5E9C6A53E}"/>
+    <hyperlink ref="I26" r:id="rId5" xr:uid="{CF03A63A-5167-4AB2-8120-4D582A637602}"/>
+    <hyperlink ref="I22" r:id="rId6" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
+    <hyperlink ref="I23" r:id="rId7" xr:uid="{6295A839-49C6-4C58-940A-E1C207E33B16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11AF97-4B49-4A00-B4DB-1767AAFAA877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535EC12C-F715-4988-AC23-3CA097997E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D1E326A6-F979-45C4-8CE7-A5BFB5AAE027}"/>
   </bookViews>
   <sheets>
-    <sheet name="layers" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Layers" sheetId="1" r:id="rId1"/>
+    <sheet name="Full" sheetId="4" r:id="rId2"/>
+    <sheet name="Simple" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1166">
   <si>
     <t>Name</t>
   </si>
@@ -3454,9 +3456,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>display</t>
-  </si>
-  <si>
     <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Feature\Facilities\proposed_turnout_2024_0115.shp</t>
   </si>
   <si>
@@ -3511,10 +3510,34 @@
     <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0117 Shapefiles\2024-0117 Total Area.shp</t>
   </si>
   <si>
-    <t>partial_display</t>
-  </si>
-  <si>
     <t>clip_to_frick</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>clip_to_district</t>
+  </si>
+  <si>
+    <t>parquet</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\apn_gdf_sa.parquet</t>
+  </si>
+  <si>
+    <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\pipes.parquet</t>
+  </si>
+  <si>
+    <t>clip_to_frick_x</t>
   </si>
 </sst>
 </file>
@@ -3592,7 +3615,22 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3652,24 +3690,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:M27" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{70977AAF-43F2-425E-82FC-B3E65FBAA5F5}" name="clip_to_frick" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="3">
-      <calculatedColumnFormula>IF(AND(ISBLANK(I2),ISBLANK(J2)),"gdf",IF(ISBLANK(I2),"gdb","shp"))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:P27" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:P27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+  <tableColumns count="16">
+    <tableColumn id="14" xr3:uid="{FD22FF16-AC11-4A88-BBBF-B095EEDCA4A7}" name="id" dataDxfId="5">
+      <calculatedColumnFormula>COUNTA($B$2:B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="display" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="partial_display" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{A021074F-E293-4729-B760-95BDF80DC51A}" name="file_path" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="11">
+      <calculatedColumnFormula>IF(AND(ISBLANK(J2),ISBLANK(K2)),"gdf",IF(ISBLANK(J2),"gdb","shp"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{32F2F140-781D-475B-96FC-3B17A14657F3}" name="parquet" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{70977AAF-43F2-425E-82FC-B3E65FBAA5F5}" name="clip_to_frick_x" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="full" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="simple" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B81950AE-EF54-4FA5-BB22-C809E83AAF11}" name="Full" displayName="Full" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32" xr:uid="{B81950AE-EF54-4FA5-BB22-C809E83AAF11}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4754FC9B-6124-4228-B7BF-7B032ECB8F86}" name="id"/>
+    <tableColumn id="4" xr3:uid="{173C4110-902C-44E8-A7B8-D12022520E9E}" name="Name" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{5F4BCE47-652C-4B05-8F6F-CECE92525D81}" name="clip_to_district"/>
+    <tableColumn id="3" xr3:uid="{39EA5A99-DAAB-46CC-9DAB-0450B6EF8DDF}" name="clip_to_frick"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0AF7E9A1-AB99-4B9B-8CF3-5500658B403F}" name="simple" displayName="simple" ref="A1:D25" totalsRowShown="0">
+  <autoFilter ref="A1:D25" xr:uid="{0AF7E9A1-AB99-4B9B-8CF3-5500658B403F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{76112EF5-A237-494A-8DD1-B6E6E7A428D6}" name="id"/>
+    <tableColumn id="4" xr3:uid="{EF8D3B3C-FE96-4778-8D14-DB9F165FFE04}" name="Name" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E1424619-33A9-4FB9-84C3-C1EA1F773CC7}" name="clip_to_district"/>
+    <tableColumn id="3" xr3:uid="{DAAA3D4B-AF94-47BF-AD18-F86F403AE73A}" name="clip_to_frick"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3938,869 +4011,1582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="1">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.5703125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>COUNTA($B$2:B2)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <f>IF(AND(ISBLANK(I2),ISBLANK(J2)),"gdf",IF(ISBLANK(I2),"gdb","shp"))</f>
+      <c r="H2" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>IF(AND(ISBLANK(J2),ISBLANK(K2)),"gdf",IF(ISBLANK(J2),"gdb","shp"))</f>
         <v>gdf</v>
       </c>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>COUNTA($B$2:B3)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.05</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>COUNTA($B$2:B4)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H17" si="0">IF(AND(ISBLANK(I4),ISBLANK(J4)),"gdf",IF(ISBLANK(I4),"gdb","shp"))</f>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" ref="I4:I17" si="0">IF(AND(ISBLANK(J4),ISBLANK(K4)),"gdf",IF(ISBLANK(J4),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="O4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>COUNTA($B$2:B5)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="O5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>COUNTA($B$2:B6)</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="O6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>COUNTA($B$2:B7)</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.7</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>COUNTA($B$2:B8)</f>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>gdb</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>COUNTA($B$2:B9)</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>COUNTA($B$2:B10)</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="L9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="str">
+      <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>COUNTA($B$2:B11)</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="L10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="str">
+      <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>COUNTA($B$2:B12)</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="L11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="str">
+      <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>COUNTA($B$2:B13)</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="L12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="str">
+      <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>COUNTA($B$2:B14)</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="L13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1" t="str">
+      <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>COUNTA($B$2:B15)</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="L14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="1" t="str">
+      <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>COUNTA($B$2:B16)</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="L15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="str">
+      <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>COUNTA($B$2:B17)</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="L16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="str">
+      <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>COUNTA($B$2:B18)</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="L17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f>IF(AND(ISBLANK(I18),ISBLANK(J18)),"gdf",IF(ISBLANK(I18),"gdb","shp"))</f>
+      <c r="I18" s="1" t="str">
+        <f>IF(AND(ISBLANK(J18),ISBLANK(K18)),"gdf",IF(ISBLANK(J18),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>COUNTA($B$2:B19)</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>IF(AND(ISBLANK(J19),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J19),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>COUNTA($B$2:B20)</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>IF(AND(ISBLANK(J20),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J20),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>COUNTA($B$2:B21)</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>IF(AND(ISBLANK(J21),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J21),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>COUNTA($B$2:B22)</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>IF(AND(ISBLANK(J22),ISBLANK(K22)),"gdf",IF(ISBLANK(J22),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>COUNTA($B$2:B23)</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" ref="I23" si="1">IF(AND(ISBLANK(J23),ISBLANK(K23)),"gdf",IF(ISBLANK(J23),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="N23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>COUNTA($B$2:B24)</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>IF(AND(ISBLANK(J24),ISBLANK(K24)),"gdf",IF(ISBLANK(J24),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>COUNTA($B$2:B25)</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>IF(AND(ISBLANK(J25),ISBLANK(K25)),"gdf",IF(ISBLANK(J25),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>COUNTA($B$2:B26)</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f>IF(AND(ISBLANK(I19),ISBLANK(#REF!)),"gdf",IF(ISBLANK(I19),"gdb","shp"))</f>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f>IF(AND(ISBLANK(J26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J26),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="J26" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f>COUNTA($B$2:B27)</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f>IF(AND(ISBLANK(I20),ISBLANK(#REF!)),"gdf",IF(ISBLANK(I20),"gdb","shp"))</f>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>IF(AND(ISBLANK(J27),ISBLANK(K27)),"gdf",IF(ISBLANK(J27),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f>IF(AND(ISBLANK(I21),ISBLANK(#REF!)),"gdf",IF(ISBLANK(I21),"gdb","shp"))</f>
-        <v>shp</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f>IF(AND(ISBLANK(I22),ISBLANK(J22)),"gdf",IF(ISBLANK(I22),"gdb","shp"))</f>
-        <v>shp</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" ref="H23" si="1">IF(AND(ISBLANK(I23),ISBLANK(J23)),"gdf",IF(ISBLANK(I23),"gdb","shp"))</f>
-        <v>shp</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="L23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f>IF(AND(ISBLANK(I24),ISBLANK(J24)),"gdf",IF(ISBLANK(I24),"gdb","shp"))</f>
-        <v>shp</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="L24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f>IF(AND(ISBLANK(I25),ISBLANK(J25)),"gdf",IF(ISBLANK(I25),"gdb","shp"))</f>
-        <v>shp</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f>IF(AND(ISBLANK(I26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(I26),"gdb","shp"))</f>
-        <v>shp</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f>IF(AND(ISBLANK(I27),ISBLANK(J27)),"gdf",IF(ISBLANK(I27),"gdb","shp"))</f>
-        <v>shp</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="L27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{8326981B-40D6-4238-BBA0-B187275AE143}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
-    <hyperlink ref="I21" r:id="rId4" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{508724CA-ED12-47D1-9898-57D5E9C6A53E}"/>
-    <hyperlink ref="I26" r:id="rId5" xr:uid="{CF03A63A-5167-4AB2-8120-4D582A637602}"/>
-    <hyperlink ref="I22" r:id="rId6" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
-    <hyperlink ref="I23" r:id="rId7" xr:uid="{6295A839-49C6-4C58-940A-E1C207E33B16}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{8326981B-40D6-4238-BBA0-B187275AE143}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
+    <hyperlink ref="J21" r:id="rId4" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{508724CA-ED12-47D1-9898-57D5E9C6A53E}"/>
+    <hyperlink ref="J26" r:id="rId5" xr:uid="{CF03A63A-5167-4AB2-8120-4D582A637602}"/>
+    <hyperlink ref="J22" r:id="rId6" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
+    <hyperlink ref="J23" r:id="rId7" xr:uid="{6295A839-49C6-4C58-940A-E1C207E33B16}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{F5D14A54-EC06-45D3-A47E-20BB06897997}"/>
+    <hyperlink ref="H5" r:id="rId9" xr:uid="{6469F71F-1771-4471-A037-603CC7D38C87}"/>
+    <hyperlink ref="H6" r:id="rId10" xr:uid="{41F3BB08-C7A3-4D3C-98D0-EABC06E7FB25}"/>
+    <hyperlink ref="H21" r:id="rId11" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{8D37421C-1E49-4088-886A-D74E246D1446}"/>
+    <hyperlink ref="H26" r:id="rId12" xr:uid="{8C5E7B2B-4B6F-4BA8-B05E-1FF3BCCBF113}"/>
+    <hyperlink ref="H22" r:id="rId13" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{04F17B0E-1689-4456-AD3F-3A2F00777F59}"/>
+    <hyperlink ref="H23" r:id="rId14" xr:uid="{CFDC9249-C17E-4BE6-833C-0275B24F0A49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D9080-64E2-4B2F-87FA-E84E3286332F}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="1">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Proposed Turnout</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Proposed Pipeline</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Pipeline ESMT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Landowner Wells</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>APNs</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Frick Unit Service Area</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>DiGiorgio Pipeline</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>DiGiorgio Service Area</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Existing Laterals</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Panama Unit Pipeline</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Panama Unit Service Area</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="e">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Sandrini Unit proposed pipeline</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Sandrini Unit Service Area</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>District Boundary</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>AEWSD North Canal</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="str">
+        <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>FFPPP Discharge Pipeline</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE6D4D-6F98-4C87-927B-967B3053D1D4}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="1">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Proposed Pipeline</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Proposed Turnout</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Pipeline ESMT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Landowner Wells</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>APNs</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Frick Unit Service Area</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>District Boundary</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>AEWSD North Canal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>FFPPP Discharge Pipeline</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DF362-17A2-41B4-BEE1-57C9A142E6BD}">
   <dimension ref="A1:H559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19342,16 +20128,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE6D4D-6F98-4C87-927B-967B3053D1D4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535EC12C-F715-4988-AC23-3CA097997E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5551E0-4D99-4561-BB1D-ED549C22A89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D1E326A6-F979-45C4-8CE7-A5BFB5AAE027}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1167">
   <si>
     <t>Name</t>
   </si>
@@ -3453,15 +3452,6 @@
     <t>2d Linework - Cheryl</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Feature\Facilities\proposed_turnout_2024_0115.shp</t>
-  </si>
-  <si>
-    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Feature\Facilities\proposed_pipeline_2024_0115.shp</t>
-  </si>
-  <si>
     <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Feature\_For\FrickUnit_Outreach\DiGiorgio_Unit_proposed_pipeline.shp</t>
   </si>
   <si>
@@ -3498,18 +3488,9 @@
     <t>SL,PL,R-W</t>
   </si>
   <si>
-    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0115 Pipeline SL-PL-RW.shp</t>
-  </si>
-  <si>
     <t>#FF00FF</t>
   </si>
   <si>
-    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0117 Shapefiles\2024-0117 Pipeline ESMT.shp</t>
-  </si>
-  <si>
-    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\2024-0117 Shapefiles\2024-0117 Total Area.shp</t>
-  </si>
-  <si>
     <t>clip_to_frick</t>
   </si>
   <si>
@@ -3538,6 +3519,27 @@
   </si>
   <si>
     <t>clip_to_frick_x</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Total Area.shp</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Pipeline ESMT.shp</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Turnouts.shp</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Pipe.shp</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Isolation Valves.shp</t>
+  </si>
+  <si>
+    <t>TURNOUT</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -3617,16 +3619,16 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3693,26 +3695,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:P27" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:P27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
   <tableColumns count="16">
-    <tableColumn id="14" xr3:uid="{FD22FF16-AC11-4A88-BBBF-B095EEDCA4A7}" name="id" dataDxfId="5">
+    <tableColumn id="14" xr3:uid="{FD22FF16-AC11-4A88-BBBF-B095EEDCA4A7}" name="id" dataDxfId="17">
       <calculatedColumnFormula>COUNTA($B$2:B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{A021074F-E293-4729-B760-95BDF80DC51A}" name="file_path" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{A021074F-E293-4729-B760-95BDF80DC51A}" name="file_path" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="9">
       <calculatedColumnFormula>IF(AND(ISBLANK(J2),ISBLANK(K2)),"gdf",IF(ISBLANK(J2),"gdb","shp"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{32F2F140-781D-475B-96FC-3B17A14657F3}" name="parquet" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{32F2F140-781D-475B-96FC-3B17A14657F3}" name="parquet" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{70977AAF-43F2-425E-82FC-B3E65FBAA5F5}" name="clip_to_frick_x" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="full" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="simple" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="full" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="simple" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3723,7 +3725,7 @@
   <autoFilter ref="A1:D32" xr:uid="{B81950AE-EF54-4FA5-BB22-C809E83AAF11}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4754FC9B-6124-4228-B7BF-7B032ECB8F86}" name="id"/>
-    <tableColumn id="4" xr3:uid="{173C4110-902C-44E8-A7B8-D12022520E9E}" name="Name" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{173C4110-902C-44E8-A7B8-D12022520E9E}" name="Name" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{5F4BCE47-652C-4B05-8F6F-CECE92525D81}" name="clip_to_district"/>
@@ -3738,7 +3740,7 @@
   <autoFilter ref="A1:D25" xr:uid="{0AF7E9A1-AB99-4B9B-8CF3-5500658B403F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{76112EF5-A237-494A-8DD1-B6E6E7A428D6}" name="id"/>
-    <tableColumn id="4" xr3:uid="{EF8D3B3C-FE96-4778-8D14-DB9F165FFE04}" name="Name" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{EF8D3B3C-FE96-4778-8D14-DB9F165FFE04}" name="Name" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E1424619-33A9-4FB9-84C3-C1EA1F773CC7}" name="clip_to_district"/>
@@ -4013,11 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="1">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,7 +4046,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4068,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>46</v>
@@ -4080,19 +4079,19 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
@@ -4120,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>IF(AND(ISBLANK(J2),ISBLANK(K2)),"gdf",IF(ISBLANK(J2),"gdb","shp"))</f>
@@ -4155,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>49</v>
@@ -4388,14 +4387,14 @@
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>1</v>
@@ -4427,14 +4426,14 @@
         <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>1</v>
@@ -4465,14 +4464,14 @@
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="O11" s="1" t="b">
         <v>1</v>
@@ -4503,14 +4502,14 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="O12" s="1" t="b">
         <v>1</v>
@@ -4541,14 +4540,14 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="O13" s="1" t="b">
         <v>1</v>
@@ -4579,14 +4578,14 @@
         <v>37</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="O14" s="1" t="b">
         <v>1</v>
@@ -4617,14 +4616,14 @@
         <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="O15" s="1" t="b">
         <v>1</v>
@@ -4655,14 +4654,14 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="O16" s="1" t="b">
         <v>1</v>
@@ -4693,14 +4692,14 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="O17" s="1" t="b">
         <v>1</v>
@@ -4716,14 +4715,14 @@
         <v>1130</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>IF(AND(ISBLANK(J18),ISBLANK(K18)),"gdf",IF(ISBLANK(J18),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
@@ -4867,7 +4866,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>COUNTA($B$2:B23)</f>
         <v>22</v>
@@ -4888,17 +4887,17 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1137</v>
+        <v>1165</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1138</v>
+        <v>1162</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" ref="I23" si="1">IF(AND(ISBLANK(J23),ISBLANK(K23)),"gdf",IF(ISBLANK(J23),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>1138</v>
+        <v>1162</v>
       </c>
       <c r="N23" s="1" t="b">
         <v>1</v>
@@ -4911,13 +4910,13 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>COUNTA($B$2:B24)</f>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
@@ -4932,14 +4931,14 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>IF(AND(ISBLANK(J24),ISBLANK(K24)),"gdf",IF(ISBLANK(J24),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="O24" s="1" t="b">
         <v>1</v>
@@ -4955,13 +4954,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -4970,18 +4969,18 @@
         <v>0.2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>IF(AND(ISBLANK(J25),ISBLANK(K25)),"gdf",IF(ISBLANK(J25),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>COUNTA($B$2:B26)</f>
         <v>25</v>
@@ -5002,17 +5001,17 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1139</v>
+        <v>1163</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>IF(AND(ISBLANK(J26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J26),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>1139</v>
+        <v>1163</v>
       </c>
       <c r="O26" s="1" t="b">
         <v>1</v>
@@ -5022,7 +5021,7 @@
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>COUNTA($B$2:B27)</f>
         <v>26</v>
@@ -5043,14 +5042,14 @@
         <v>0.7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>IF(AND(ISBLANK(J27),ISBLANK(K27)),"gdf",IF(ISBLANK(J27),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="N27" s="1" t="b">
         <v>1</v>
@@ -5066,20 +5065,16 @@
     <hyperlink ref="J5" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
     <hyperlink ref="J6" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
     <hyperlink ref="J21" r:id="rId4" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{508724CA-ED12-47D1-9898-57D5E9C6A53E}"/>
-    <hyperlink ref="J26" r:id="rId5" xr:uid="{CF03A63A-5167-4AB2-8120-4D582A637602}"/>
-    <hyperlink ref="J22" r:id="rId6" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
-    <hyperlink ref="J23" r:id="rId7" xr:uid="{6295A839-49C6-4C58-940A-E1C207E33B16}"/>
-    <hyperlink ref="H4" r:id="rId8" xr:uid="{F5D14A54-EC06-45D3-A47E-20BB06897997}"/>
-    <hyperlink ref="H5" r:id="rId9" xr:uid="{6469F71F-1771-4471-A037-603CC7D38C87}"/>
-    <hyperlink ref="H6" r:id="rId10" xr:uid="{41F3BB08-C7A3-4D3C-98D0-EABC06E7FB25}"/>
-    <hyperlink ref="H21" r:id="rId11" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{8D37421C-1E49-4088-886A-D74E246D1446}"/>
-    <hyperlink ref="H26" r:id="rId12" xr:uid="{8C5E7B2B-4B6F-4BA8-B05E-1FF3BCCBF113}"/>
-    <hyperlink ref="H22" r:id="rId13" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{04F17B0E-1689-4456-AD3F-3A2F00777F59}"/>
-    <hyperlink ref="H23" r:id="rId14" xr:uid="{CFDC9249-C17E-4BE6-833C-0275B24F0A49}"/>
+    <hyperlink ref="J22" r:id="rId5" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{F5D14A54-EC06-45D3-A47E-20BB06897997}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{6469F71F-1771-4471-A037-603CC7D38C87}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{41F3BB08-C7A3-4D3C-98D0-EABC06E7FB25}"/>
+    <hyperlink ref="H21" r:id="rId9" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{8D37421C-1E49-4088-886A-D74E246D1446}"/>
+    <hyperlink ref="H22" r:id="rId10" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{04F17B0E-1689-4456-AD3F-3A2F00777F59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5090,9 +5085,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="1">
-      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,16 +5097,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D1" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5367,9 +5359,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="1">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5381,16 +5370,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D1" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,7 +5575,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5551E0-4D99-4561-BB1D-ED549C22A89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A70444-9496-4C83-A222-B9F9476E1DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1168">
   <si>
     <t>Name</t>
   </si>
@@ -3540,6 +3540,9 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\OMIT\2024-0115 Pipeline SL-PL-RW.shp</t>
   </si>
 </sst>
 </file>
@@ -4016,7 +4019,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,7 +4951,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>COUNTA($B$2:B25)</f>
         <v>24</v>
@@ -4969,7 +4972,7 @@
         <v>0.2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>IF(AND(ISBLANK(J25),ISBLANK(K25)),"gdf",IF(ISBLANK(J25),"gdb","shp"))</f>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A70444-9496-4C83-A222-B9F9476E1DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1A6386-5B34-4874-9B6D-5C45AF732B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1167">
   <si>
     <t>Name</t>
   </si>
@@ -3485,9 +3485,6 @@
     <t>Pipeline ESMT</t>
   </si>
   <si>
-    <t>SL,PL,R-W</t>
-  </si>
-  <si>
     <t>#FF00FF</t>
   </si>
   <si>
@@ -3542,7 +3539,7 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\OMIT\2024-0115 Pipeline SL-PL-RW.shp</t>
+    <t>Isolation Valves</t>
   </si>
 </sst>
 </file>
@@ -4018,8 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,7 +4028,7 @@
     <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="102" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="54.140625" style="1" bestFit="1" customWidth="1"/>
@@ -4049,7 +4046,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4070,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>46</v>
@@ -4082,19 +4079,19 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1152</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
@@ -4122,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>IF(AND(ISBLANK(J2),ISBLANK(K2)),"gdf",IF(ISBLANK(J2),"gdb","shp"))</f>
@@ -4157,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>49</v>
@@ -4890,17 +4887,17 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" ref="I23" si="1">IF(AND(ISBLANK(J23),ISBLANK(K23)),"gdf",IF(ISBLANK(J23),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N23" s="1" t="b">
         <v>1</v>
@@ -4934,14 +4931,14 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>IF(AND(ISBLANK(J24),ISBLANK(K24)),"gdf",IF(ISBLANK(J24),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O24" s="1" t="b">
         <v>1</v>
@@ -4957,29 +4954,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1149</v>
-      </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1">
         <v>0.2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>IF(AND(ISBLANK(J25),ISBLANK(K25)),"gdf",IF(ISBLANK(J25),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
@@ -5004,17 +5001,17 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>IF(AND(ISBLANK(J26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J26),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="O26" s="1" t="b">
         <v>1</v>
@@ -5045,14 +5042,14 @@
         <v>0.7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>IF(AND(ISBLANK(J27),ISBLANK(K27)),"gdf",IF(ISBLANK(J27),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N27" s="1" t="b">
         <v>1</v>
@@ -5087,7 +5084,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5100,16 +5097,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE6D4D-6F98-4C87-927B-967B3053D1D4}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5373,16 +5370,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,11 +5393,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>Proposed Turnout</v>
+        <v>Isolation Valves</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -5427,23 +5424,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>APNs</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
+        <v>Proposed Turnout</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>26</v>
-      </c>
-      <c r="B7" t="str">
+      <c r="B7" t="e">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>Frick Unit Service Area</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5465,15 +5456,24 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="e">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>#N/A</v>
+        <v>APNs</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="e">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>#N/A</v>
+        <v>Frick Unit Service Area</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1A6386-5B34-4874-9B6D-5C45AF732B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87558FB5-2595-4DD2-8FC3-8F75A74AD1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="1168">
   <si>
     <t>Name</t>
   </si>
@@ -3485,9 +3485,6 @@
     <t>Pipeline ESMT</t>
   </si>
   <si>
-    <t>#FF00FF</t>
-  </si>
-  <si>
     <t>clip_to_frick</t>
   </si>
   <si>
@@ -3540,6 +3537,12 @@
   </si>
   <si>
     <t>Isolation Valves</t>
+  </si>
+  <si>
+    <t>https://www.svgrepo.com/show/522083/cross-circle.svg</t>
+  </si>
+  <si>
+    <t>custom_icon</t>
   </si>
 </sst>
 </file>
@@ -3597,7 +3600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3612,12 +3615,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3692,29 +3699,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:P27" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:P27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
-  <tableColumns count="16">
-    <tableColumn id="14" xr3:uid="{FD22FF16-AC11-4A88-BBBF-B095EEDCA4A7}" name="id" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:Q27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+  <tableColumns count="17">
+    <tableColumn id="14" xr3:uid="{FD22FF16-AC11-4A88-BBBF-B095EEDCA4A7}" name="id" dataDxfId="18">
       <calculatedColumnFormula>COUNTA($B$2:B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{A021074F-E293-4729-B760-95BDF80DC51A}" name="file_path" dataDxfId="10" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="9">
-      <calculatedColumnFormula>IF(AND(ISBLANK(J2),ISBLANK(K2)),"gdf",IF(ISBLANK(J2),"gdb","shp"))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{D15AE7DB-7AAD-471C-9773-F7621D0BAB27}" name="custom_icon" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{A021074F-E293-4729-B760-95BDF80DC51A}" name="file_path" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="10">
+      <calculatedColumnFormula>IF(AND(ISBLANK(K2),ISBLANK(L2)),"gdf",IF(ISBLANK(K2),"gdb","shp"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{32F2F140-781D-475B-96FC-3B17A14657F3}" name="parquet" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{70977AAF-43F2-425E-82FC-B3E65FBAA5F5}" name="clip_to_frick_x" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="full" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="simple" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{32F2F140-781D-475B-96FC-3B17A14657F3}" name="parquet" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{70977AAF-43F2-425E-82FC-B3E65FBAA5F5}" name="clip_to_frick_x" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="full" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="simple" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3725,7 +3733,7 @@
   <autoFilter ref="A1:D32" xr:uid="{B81950AE-EF54-4FA5-BB22-C809E83AAF11}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4754FC9B-6124-4228-B7BF-7B032ECB8F86}" name="id"/>
-    <tableColumn id="4" xr3:uid="{173C4110-902C-44E8-A7B8-D12022520E9E}" name="Name" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{173C4110-902C-44E8-A7B8-D12022520E9E}" name="Name" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{5F4BCE47-652C-4B05-8F6F-CECE92525D81}" name="clip_to_district"/>
@@ -3740,7 +3748,7 @@
   <autoFilter ref="A1:D25" xr:uid="{0AF7E9A1-AB99-4B9B-8CF3-5500658B403F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{76112EF5-A237-494A-8DD1-B6E6E7A428D6}" name="id"/>
-    <tableColumn id="4" xr3:uid="{EF8D3B3C-FE96-4778-8D14-DB9F165FFE04}" name="Name" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{EF8D3B3C-FE96-4778-8D14-DB9F165FFE04}" name="Name" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E1424619-33A9-4FB9-84C3-C1EA1F773CC7}" name="clip_to_district"/>
@@ -4013,10 +4021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4025,28 +4033,29 @@
     <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="102" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.5703125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="102" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.5703125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4058,44 +4067,47 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1155</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>1154</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>1158</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>COUNTA($B$2:B2)</f>
         <v>1</v>
@@ -4109,28 +4121,28 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f>IF(AND(ISBLANK(J2),ISBLANK(K2)),"gdf",IF(ISBLANK(J2),"gdb","shp"))</f>
+      <c r="I2" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>IF(AND(ISBLANK(K2),ISBLANK(L2)),"gdf",IF(ISBLANK(K2),"gdb","shp"))</f>
         <v>gdf</v>
       </c>
-      <c r="O2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>COUNTA($B$2:B3)</f>
         <v>2</v>
@@ -4144,30 +4156,30 @@
       <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.05</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>1156</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="P3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>COUNTA($B$2:B4)</f>
         <v>3</v>
@@ -4181,34 +4193,34 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" ref="I4:I17" si="0">IF(AND(ISBLANK(J4),ISBLANK(K4)),"gdf",IF(ISBLANK(J4),"gdb","shp"))</f>
+      <c r="J4" s="1" t="str">
+        <f t="shared" ref="J4:J17" si="0">IF(AND(ISBLANK(K4),ISBLANK(L4)),"gdf",IF(ISBLANK(K4),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="P4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>COUNTA($B$2:B5)</f>
         <v>4</v>
@@ -4222,34 +4234,34 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="P5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>COUNTA($B$2:B6)</f>
         <v>5</v>
@@ -4263,34 +4275,34 @@
       <c r="D6" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="P6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>COUNTA($B$2:B7)</f>
         <v>6</v>
@@ -4304,28 +4316,28 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.7</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>COUNTA($B$2:B8)</f>
         <v>7</v>
@@ -4339,31 +4351,31 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1">
-        <v>30</v>
-      </c>
       <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>gdb</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>COUNTA($B$2:B9)</f>
         <v>8</v>
@@ -4377,32 +4389,32 @@
       <c r="D9" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="O9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>COUNTA($B$2:B10)</f>
         <v>9</v>
@@ -4416,31 +4428,31 @@
       <c r="D10" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.7</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="O10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>COUNTA($B$2:B11)</f>
         <v>10</v>
@@ -4454,31 +4466,31 @@
       <c r="D11" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="O11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>COUNTA($B$2:B12)</f>
         <v>11</v>
@@ -4492,31 +4504,31 @@
       <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="O12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>COUNTA($B$2:B13)</f>
         <v>12</v>
@@ -4530,31 +4542,31 @@
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.65</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="I13" s="1" t="str">
+      <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="O13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>COUNTA($B$2:B14)</f>
         <v>13</v>
@@ -4568,31 +4580,31 @@
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="O14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>COUNTA($B$2:B15)</f>
         <v>14</v>
@@ -4606,31 +4618,31 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="O15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>COUNTA($B$2:B16)</f>
         <v>15</v>
@@ -4644,31 +4656,31 @@
       <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="I16" s="1" t="str">
+      <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="O16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="P16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>COUNTA($B$2:B17)</f>
         <v>16</v>
@@ -4682,31 +4694,31 @@
       <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>7</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.4</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="I17" s="1" t="str">
+      <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shp</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="O17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="P17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>COUNTA($B$2:B18)</f>
         <v>17</v>
@@ -4714,19 +4726,19 @@
       <c r="B18" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="I18" s="1" t="str">
-        <f>IF(AND(ISBLANK(J18),ISBLANK(K18)),"gdf",IF(ISBLANK(J18),"gdb","shp"))</f>
+      <c r="J18" s="1" t="str">
+        <f>IF(AND(ISBLANK(K18),ISBLANK(L18)),"gdf",IF(ISBLANK(K18),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>COUNTA($B$2:B19)</f>
         <v>18</v>
@@ -4740,28 +4752,28 @@
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>7</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.4</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="I19" s="1" t="str">
-        <f>IF(AND(ISBLANK(J19),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J19),"gdb","shp"))</f>
+      <c r="J19" s="1" t="str">
+        <f>IF(AND(ISBLANK(K19),ISBLANK(#REF!)),"gdf",IF(ISBLANK(K19),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>COUNTA($B$2:B20)</f>
         <v>19</v>
@@ -4775,28 +4787,28 @@
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>7</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>0.4</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="I20" s="1" t="str">
-        <f>IF(AND(ISBLANK(J20),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J20),"gdb","shp"))</f>
+      <c r="J20" s="1" t="str">
+        <f>IF(AND(ISBLANK(K20),ISBLANK(#REF!)),"gdf",IF(ISBLANK(K20),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>COUNTA($B$2:B21)</f>
         <v>20</v>
@@ -4810,28 +4822,28 @@
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>7</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>0.4</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="I21" s="1" t="str">
-        <f>IF(AND(ISBLANK(J21),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J21),"gdb","shp"))</f>
+      <c r="J21" s="1" t="str">
+        <f>IF(AND(ISBLANK(K21),ISBLANK(#REF!)),"gdf",IF(ISBLANK(K21),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>COUNTA($B$2:B22)</f>
         <v>21</v>
@@ -4845,28 +4857,28 @@
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.7</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="I22" s="1" t="str">
-        <f>IF(AND(ISBLANK(J22),ISBLANK(K22)),"gdf",IF(ISBLANK(J22),"gdb","shp"))</f>
+      <c r="J22" s="1" t="str">
+        <f>IF(AND(ISBLANK(K22),ISBLANK(L22)),"gdf",IF(ISBLANK(K22),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>COUNTA($B$2:B23)</f>
         <v>22</v>
@@ -4880,27 +4892,24 @@
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="1">
-        <v>30</v>
-      </c>
       <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" ref="I23" si="1">IF(AND(ISBLANK(J23),ISBLANK(K23)),"gdf",IF(ISBLANK(J23),"gdb","shp"))</f>
+        <v>30</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" ref="J23" si="1">IF(AND(ISBLANK(K23),ISBLANK(L23)),"gdf",IF(ISBLANK(K23),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="N23" s="1" t="b">
-        <v>1</v>
+      <c r="K23" s="2" t="s">
+        <v>1160</v>
       </c>
       <c r="O23" s="1" t="b">
         <v>1</v>
@@ -4908,9 +4917,12 @@
       <c r="P23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>COUNTA($B$2:B24)</f>
         <v>23</v>
@@ -4924,63 +4936,66 @@
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>0.5</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f>IF(AND(ISBLANK(J24),ISBLANK(K24)),"gdf",IF(ISBLANK(J24),"gdb","shp"))</f>
+      <c r="I24" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f>IF(AND(ISBLANK(K24),ISBLANK(L24)),"gdf",IF(ISBLANK(K24),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="O24" s="1" t="b">
-        <v>1</v>
+      <c r="K24" s="1" t="s">
+        <v>1159</v>
       </c>
       <c r="P24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>COUNTA($B$2:B25)</f>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E25" s="1">
-        <v>8</v>
-      </c>
       <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
         <v>0.2</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f>IF(AND(ISBLANK(J25),ISBLANK(K25)),"gdf",IF(ISBLANK(J25),"gdb","shp"))</f>
+      <c r="I25" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f>IF(AND(ISBLANK(K25),ISBLANK(L25)),"gdf",IF(ISBLANK(K25),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>COUNTA($B$2:B26)</f>
         <v>25</v>
@@ -4994,34 +5009,34 @@
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f>IF(AND(ISBLANK(J26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(J26),"gdb","shp"))</f>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f>IF(AND(ISBLANK(K26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(K26),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="O26" s="1" t="b">
-        <v>1</v>
+      <c r="K26" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="P26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>COUNTA($B$2:B27)</f>
         <v>26</v>
@@ -5035,46 +5050,47 @@
       <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.7</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f>IF(AND(ISBLANK(J27),ISBLANK(K27)),"gdf",IF(ISBLANK(J27),"gdb","shp"))</f>
+      <c r="I27" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f>IF(AND(ISBLANK(K27),ISBLANK(L27)),"gdf",IF(ISBLANK(K27),"gdb","shp"))</f>
         <v>shp</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="N27" s="1" t="b">
-        <v>1</v>
+      <c r="K27" s="1" t="s">
+        <v>1158</v>
       </c>
       <c r="O27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q27" s="1"/>
+      <c r="P27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{8326981B-40D6-4238-BBA0-B187275AE143}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
-    <hyperlink ref="J21" r:id="rId4" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{508724CA-ED12-47D1-9898-57D5E9C6A53E}"/>
-    <hyperlink ref="J22" r:id="rId5" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{F5D14A54-EC06-45D3-A47E-20BB06897997}"/>
-    <hyperlink ref="H5" r:id="rId7" xr:uid="{6469F71F-1771-4471-A037-603CC7D38C87}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{41F3BB08-C7A3-4D3C-98D0-EABC06E7FB25}"/>
-    <hyperlink ref="H21" r:id="rId9" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{8D37421C-1E49-4088-886A-D74E246D1446}"/>
-    <hyperlink ref="H22" r:id="rId10" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{04F17B0E-1689-4456-AD3F-3A2F00777F59}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{8326981B-40D6-4238-BBA0-B187275AE143}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{795F971B-3E17-44BB-BB2F-D199EDC06FA3}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{262DB652-1372-428E-968A-493870F0BA70}"/>
+    <hyperlink ref="K21" r:id="rId4" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{508724CA-ED12-47D1-9898-57D5E9C6A53E}"/>
+    <hyperlink ref="K22" r:id="rId5" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{060BD7F1-6F78-4703-9C55-C08E0EE85218}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{F5D14A54-EC06-45D3-A47E-20BB06897997}"/>
+    <hyperlink ref="I5" r:id="rId7" xr:uid="{6469F71F-1771-4471-A037-603CC7D38C87}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{41F3BB08-C7A3-4D3C-98D0-EABC06E7FB25}"/>
+    <hyperlink ref="I21" r:id="rId9" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{8D37421C-1E49-4088-886A-D74E246D1446}"/>
+    <hyperlink ref="I22" r:id="rId10" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{04F17B0E-1689-4456-AD3F-3A2F00777F59}"/>
+    <hyperlink ref="E25" r:id="rId11" xr:uid="{E834DEA8-A1DB-44DA-B8B1-19CF40E79723}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5097,16 +5113,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5356,7 +5372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE6D4D-6F98-4C87-927B-967B3053D1D4}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5370,16 +5386,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denver\OneDrive - PROVOST &amp; PRITCHARD CONSULTING GROUP\Desktop\DN\Projects\aewsd_frick_unit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87558FB5-2595-4DD2-8FC3-8F75A74AD1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1170">
   <si>
     <t>Name</t>
   </si>
@@ -3543,6 +3543,12 @@
   </si>
   <si>
     <t>custom_icon</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Pipenew.shp</t>
+  </si>
+  <si>
+    <t>Updated Proposed Pipeline</t>
   </si>
 </sst>
 </file>
@@ -3623,13 +3629,13 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3699,8 +3705,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:Q27" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:Q28" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:Q28" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
   <tableColumns count="17">
     <tableColumn id="14" xr3:uid="{FD22FF16-AC11-4A88-BBBF-B095EEDCA4A7}" name="id" dataDxfId="18">
       <calculatedColumnFormula>COUNTA($B$2:B2)</calculatedColumnFormula>
@@ -3708,21 +3714,21 @@
     <tableColumn id="1" xr3:uid="{ECDAEBCA-0BC9-4D6F-9D67-ED2F186EF0F7}" name="Name" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{750F9F45-74DA-4191-9FDD-C80D49E99883}" name="shape_type" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{DEA5C356-A0FC-4C8C-9968-5AC67FC3907E}" name="color" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{D15AE7DB-7AAD-471C-9773-F7621D0BAB27}" name="custom_icon" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{A021074F-E293-4729-B760-95BDF80DC51A}" name="file_path" dataDxfId="11" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{D15AE7DB-7AAD-471C-9773-F7621D0BAB27}" name="custom_icon" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{9FB5281E-350E-4B7D-9D58-0DB6B906BEBD}" name="size" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{D175D943-C463-43FC-9D90-342CE1DF7FBF}" name="alpha" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2A7A5D16-0177-49A3-A357-AE17BC18B544}" name="label" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{A021074F-E293-4729-B760-95BDF80DC51A}" name="file_path" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{ABE4042F-57EB-42CB-9347-7A941840A818}" name="file_type" dataDxfId="9">
       <calculatedColumnFormula>IF(AND(ISBLANK(K2),ISBLANK(L2)),"gdf",IF(ISBLANK(K2),"gdb","shp"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{32F2F140-781D-475B-96FC-3B17A14657F3}" name="parquet" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{70977AAF-43F2-425E-82FC-B3E65FBAA5F5}" name="clip_to_frick_x" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="full" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="simple" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{FD57E4B2-F1EF-49AB-B319-5D04B985DCB6}" name="shp" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{C88AA5B1-0032-47EC-9D44-076891BB4F2B}" name="gdb" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{32F2F140-781D-475B-96FC-3B17A14657F3}" name="parquet" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{16B2C2C3-1747-4385-B461-84DE0EBE65B9}" name="layer" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{70977AAF-43F2-425E-82FC-B3E65FBAA5F5}" name="clip_to_frick_x" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{19D89434-0A78-4277-B54E-50635DED3A14}" name="full" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{45E051C3-34F8-4959-9AE0-818EEF884C1A}" name="simple" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3733,7 +3739,7 @@
   <autoFilter ref="A1:D32" xr:uid="{B81950AE-EF54-4FA5-BB22-C809E83AAF11}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4754FC9B-6124-4228-B7BF-7B032ECB8F86}" name="id"/>
-    <tableColumn id="4" xr3:uid="{173C4110-902C-44E8-A7B8-D12022520E9E}" name="Name" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{173C4110-902C-44E8-A7B8-D12022520E9E}" name="Name" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{5F4BCE47-652C-4B05-8F6F-CECE92525D81}" name="clip_to_district"/>
@@ -3744,11 +3750,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0AF7E9A1-AB99-4B9B-8CF3-5500658B403F}" name="simple" displayName="simple" ref="A1:D25" totalsRowShown="0">
-  <autoFilter ref="A1:D25" xr:uid="{0AF7E9A1-AB99-4B9B-8CF3-5500658B403F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0AF7E9A1-AB99-4B9B-8CF3-5500658B403F}" name="simple" displayName="simple" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26" xr:uid="{0AF7E9A1-AB99-4B9B-8CF3-5500658B403F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{76112EF5-A237-494A-8DD1-B6E6E7A428D6}" name="id"/>
-    <tableColumn id="4" xr3:uid="{EF8D3B3C-FE96-4778-8D14-DB9F165FFE04}" name="Name" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{EF8D3B3C-FE96-4778-8D14-DB9F165FFE04}" name="Name" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E1424619-33A9-4FB9-84C3-C1EA1F773CC7}" name="clip_to_district"/>
@@ -4021,10 +4027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,7 +4049,7 @@
     <col min="12" max="12" width="54.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
@@ -5073,6 +5079,44 @@
         <v>1</v>
       </c>
       <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>COUNTA($B$2:B28)</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f>IF(AND(ISBLANK(K28),ISBLANK(L28)),"gdf",IF(ISBLANK(K28),"gdb","shp"))</f>
+        <v>shp</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f>Table1[[#This Row],[file_path]]</f>
+        <v>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Pipenew.shp</v>
+      </c>
+      <c r="Q28" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5087,10 +5131,11 @@
     <hyperlink ref="I21" r:id="rId9" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{8D37421C-1E49-4088-886A-D74E246D1446}"/>
     <hyperlink ref="I22" r:id="rId10" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{04F17B0E-1689-4456-AD3F-3A2F00777F59}"/>
     <hyperlink ref="E25" r:id="rId11" xr:uid="{E834DEA8-A1DB-44DA-B8B1-19CF40E79723}"/>
+    <hyperlink ref="I28" r:id="rId12" xr:uid="{9337CBDD-603A-4650-9709-706AAE61D633}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5100,7 +5145,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5370,10 +5415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE6D4D-6F98-4C87-927B-967B3053D1D4}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,48 +5454,51 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>Isolation Valves</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>Updated Proposed Pipeline</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>Pipeline ESMT</v>
-      </c>
+        <v>Isolation Valves</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>Landowner Wells</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
+        <v>Pipeline ESMT</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>Landowner Wells</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
         <v>Proposed Turnout</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="e">
-        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5472,30 +5520,30 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B11" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
         <v>APNs</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>26</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
         <v>Frick Unit Service Area</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="e">
-        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5547,34 +5595,40 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B22" t="e">
+        <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
         <v>District Boundary</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>4</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
         <v>AEWSD North Canal</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B25" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
         <v>FFPPP Discharge Pipeline</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="e">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="e">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
         <v>#N/A</v>
       </c>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denver\OneDrive - PROVOST &amp; PRITCHARD CONSULTING GROUP\Desktop\DN\Projects\aewsd_frick_unit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://provostandpritchard-my.sharepoint.com/personal/dnoell_ppeng_com/Documents/Desktop/DN/Projects/aewsd_frick_unit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66AD9D08-BD0D-4CC6-A53E-45F1B9DEB51D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1172">
   <si>
     <t>Name</t>
   </si>
@@ -3482,9 +3482,6 @@
     <t>G:\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\400 GIS\Scripts\aewsd_frick_unit\data\TWSC_2023</t>
   </si>
   <si>
-    <t>Pipeline ESMT</t>
-  </si>
-  <si>
     <t>clip_to_frick</t>
   </si>
   <si>
@@ -3549,6 +3546,15 @@
   </si>
   <si>
     <t>Updated Proposed Pipeline</t>
+  </si>
+  <si>
+    <t>Permanent ESTM</t>
+  </si>
+  <si>
+    <t>Temporary ESTM</t>
+  </si>
+  <si>
+    <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Temp ESMT.shp</t>
   </si>
 </sst>
 </file>
@@ -3705,8 +3711,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:Q28" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:Q28" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}" name="Table1" displayName="Table1" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:Q29" xr:uid="{13AE2A8C-08DE-40F4-A2E7-494D02A4EEA7}"/>
   <tableColumns count="17">
     <tableColumn id="14" xr3:uid="{FD22FF16-AC11-4A88-BBBF-B095EEDCA4A7}" name="id" dataDxfId="18">
       <calculatedColumnFormula>COUNTA($B$2:B2)</calculatedColumnFormula>
@@ -4027,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A4" sqref="A4:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,7 +4067,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4073,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>50</v>
@@ -4085,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>46</v>
@@ -4097,19 +4103,19 @@
         <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1150</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -4137,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>IF(AND(ISBLANK(K2),ISBLANK(L2)),"gdf",IF(ISBLANK(K2),"gdb","shp"))</f>
@@ -4172,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>49</v>
@@ -4905,17 +4911,17 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" ref="J23" si="1">IF(AND(ISBLANK(K23),ISBLANK(L23)),"gdf",IF(ISBLANK(K23),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O23" s="1" t="b">
         <v>1</v>
@@ -4934,7 +4940,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
@@ -4949,14 +4955,14 @@
         <v>0.5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J24" s="1" t="str">
         <f>IF(AND(ISBLANK(K24),ISBLANK(L24)),"gdf",IF(ISBLANK(K24),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P24" s="1" t="b">
         <v>1</v>
@@ -4972,7 +4978,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
@@ -4981,7 +4987,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
@@ -4990,14 +4996,14 @@
         <v>0.2</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J25" s="1" t="str">
         <f>IF(AND(ISBLANK(K25),ISBLANK(L25)),"gdf",IF(ISBLANK(K25),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R25" s="1"/>
     </row>
@@ -5022,17 +5028,17 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J26" s="1" t="str">
         <f>IF(AND(ISBLANK(K26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(K26),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="P26" s="1" t="b">
         <v>1</v>
@@ -5063,14 +5069,14 @@
         <v>0.7</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J27" s="1" t="str">
         <f>IF(AND(ISBLANK(K27),ISBLANK(L27)),"gdf",IF(ISBLANK(K27),"gdb","shp"))</f>
         <v>shp</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="O27" s="1" t="b">
         <v>1</v>
@@ -5086,7 +5092,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
@@ -5101,10 +5107,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J28" s="1" t="str">
         <f>IF(AND(ISBLANK(K28),ISBLANK(L28)),"gdf",IF(ISBLANK(K28),"gdb","shp"))</f>
@@ -5116,6 +5122,34 @@
       </c>
       <c r="Q28" s="1" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>COUNTA($B$2:B29)</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f>IF(AND(ISBLANK(K29),ISBLANK(L29)),"gdf",IF(ISBLANK(K29),"gdb","shp"))</f>
+        <v>gdf</v>
       </c>
     </row>
   </sheetData>
@@ -5132,10 +5166,11 @@
     <hyperlink ref="I22" r:id="rId10" display="../../../../../../clients/Arvin-Edison WSD-1215/121523003-Frick Unit Pipeline/400 GIS/Feature/Boundary/Frick_Unit_2023_10.shp" xr:uid="{04F17B0E-1689-4456-AD3F-3A2F00777F59}"/>
     <hyperlink ref="E25" r:id="rId11" xr:uid="{E834DEA8-A1DB-44DA-B8B1-19CF40E79723}"/>
     <hyperlink ref="I28" r:id="rId12" xr:uid="{9337CBDD-603A-4650-9709-706AAE61D633}"/>
+    <hyperlink ref="I29" r:id="rId13" xr:uid="{2A58D626-65EF-45CD-A2E9-E443B858FA90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5144,8 +5179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D9080-64E2-4B2F-87FA-E84E3286332F}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5158,16 +5193,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,7 +5230,7 @@
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(Full[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>Pipeline ESMT</v>
+        <v>Permanent ESTM</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE6D4D-6F98-4C87-927B-967B3053D1D4}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5431,16 +5466,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,7 +5512,7 @@
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>Pipeline ESMT</v>
+        <v>Permanent ESTM</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,9 +5537,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="e">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>#N/A</v>
+        <v>Temporary ESTM</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://provostandpritchard-my.sharepoint.com/personal/dnoell_ppeng_com/Documents/Desktop/DN/Projects/aewsd_frick_unit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66AD9D08-BD0D-4CC6-A53E-45F1B9DEB51D}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB22E7D7-7E97-4133-A3DC-931A709B7842}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -4035,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>1159</v>
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>1167</v>
@@ -5179,7 +5179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D9080-64E2-4B2F-87FA-E84E3286332F}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://provostandpritchard-my.sharepoint.com/personal/dnoell_ppeng_com/Documents/Desktop/DN/Projects/aewsd_frick_unit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB22E7D7-7E97-4133-A3DC-931A709B7842}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90687E08-71FE-40F0-9BC1-8084F2453E2D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3561,7 +3561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3590,6 +3590,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCD3131"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3612,7 +3619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3628,6 +3635,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4035,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4890,7 +4898,7 @@
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f>COUNTA($B$2:B23)</f>
         <v>22</v>
@@ -4910,8 +4918,8 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>1163</v>
+      <c r="H23" s="7" t="s">
+        <v>1162</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>1159</v>

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://provostandpritchard-my.sharepoint.com/personal/dnoell_ppeng_com/Documents/Desktop/DN/Projects/aewsd_frick_unit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90687E08-71FE-40F0-9BC1-8084F2453E2D}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835508B0-0623-458A-A3C3-6AF7F667AE14}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1171">
   <si>
     <t>Name</t>
   </si>
@@ -3528,9 +3528,6 @@
   </si>
   <si>
     <t>TURNOUT</t>
-  </si>
-  <si>
-    <t>NAME</t>
   </si>
   <si>
     <t>Isolation Valves</t>
@@ -4043,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4087,7 +4084,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>50</v>
@@ -4948,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
@@ -4986,7 +4983,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
@@ -4995,7 +4992,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
@@ -5036,10 +5033,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="J26" s="1" t="str">
         <f>IF(AND(ISBLANK(K26),ISBLANK(#REF!)),"gdf",IF(ISBLANK(K26),"gdb","shp"))</f>
@@ -5100,13 +5097,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
@@ -5118,7 +5115,7 @@
         <v>1162</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J28" s="1" t="str">
         <f>IF(AND(ISBLANK(K28),ISBLANK(L28)),"gdf",IF(ISBLANK(K28),"gdb","shp"))</f>
@@ -5138,7 +5135,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
@@ -5153,7 +5150,7 @@
         <v>0.5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J29" s="1" t="str">
         <f>IF(AND(ISBLANK(K29),ISBLANK(L29)),"gdf",IF(ISBLANK(K29),"gdb","shp"))</f>
@@ -5175,10 +5172,11 @@
     <hyperlink ref="E25" r:id="rId11" xr:uid="{E834DEA8-A1DB-44DA-B8B1-19CF40E79723}"/>
     <hyperlink ref="I28" r:id="rId12" xr:uid="{9337CBDD-603A-4650-9709-706AAE61D633}"/>
     <hyperlink ref="I29" r:id="rId13" xr:uid="{2A58D626-65EF-45CD-A2E9-E443B858FA90}"/>
+    <hyperlink ref="I26" r:id="rId14" xr:uid="{F64E5A7E-4E15-4210-8C33-605EA91AC1A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5460,8 +5458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE6D4D-6F98-4C87-927B-967B3053D1D4}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,12 +5494,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3" t="str">
+      <c r="B3" t="e">
         <f>_xlfn.XLOOKUP(simple[[#This Row],[id]],Table1[id],Table1[Name])</f>
-        <v>Updated Proposed Pipeline</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://provostandpritchard-my.sharepoint.com/personal/dnoell_ppeng_com/Documents/Desktop/DN/Projects/aewsd_frick_unit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835508B0-0623-458A-A3C3-6AF7F667AE14}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{C971D4EB-3AF7-452B-8E1F-E3E4CAAC9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC6CA21F-1D8D-4F91-AE32-6CF83CF8A382}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1172">
   <si>
     <t>Name</t>
   </si>
@@ -3552,6 +3552,9 @@
   </si>
   <si>
     <t>\\ppeng.com\pzdata\clients\Arvin-Edison WSD-1215\121523003-Frick Unit Pipeline\300 CAD\320 References\Sites_Ref\Shapefiles\Temp ESMT.shp</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -4040,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5033,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>1166</v>
@@ -5458,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE6D4D-6F98-4C87-927B-967B3053D1D4}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
